--- a/数据整理/stocks/A股/上证主板/603566-普莱柯.xlsx
+++ b/数据整理/stocks/A股/上证主板/603566-普莱柯.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000849</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信双核策略混合A</t>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.52</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3140</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000850</t>
+          <t>000849</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信双核策略混合C</t>
+          <t>汇丰晋信双核策略混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>84.52</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.98</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>540009</t>
+          <t>673110</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信消费红利股票</t>
+          <t>西部利得新润灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.96</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>164403</t>
+          <t>540009</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+          <t>汇丰晋信消费红利股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>673110</t>
+          <t>000850</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西部利得新润灵活配置混合</t>
+          <t>汇丰晋信双核策略混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.43</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004157</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信诚至诚灵活配置混合A</t>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.18</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4387</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -706,25 +786,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004158</t>
+          <t>004157</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信诚至诚灵活配置混合B</t>
+          <t>信诚至诚灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>21.18</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.53</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005632</t>
+          <t>001402</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华量化先锋混合</t>
+          <t>信诚新选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>164403</t>
+          <t>005632</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+          <t>鹏华量化先锋混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>164510</t>
+          <t>002030</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富兰克林国海恒利债券（LOF）C</t>
+          <t>信诚新选回报灵活配置混合B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001402</t>
+          <t>005457</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信诚新选回报灵活配置混合A</t>
+          <t>景顺长城量化小盘股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -846,25 +976,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002030</t>
+          <t>003234</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>信诚新选回报灵活配置混合B</t>
+          <t>信诚至利灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005457</t>
+          <t>004158</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城量化小盘股票</t>
+          <t>信诚至诚灵活配置混合B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003234</t>
+          <t>003235</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>信诚至利灵活配置混合A</t>
+          <t>信诚至利灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>22.16</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>0.54</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003235</t>
+          <t>164510</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>信诚至利灵活配置混合C</t>
+          <t>富兰克林国海恒利债券（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22.16</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603566-普莱柯.xlsx
+++ b/数据整理/stocks/A股/上证主板/603566-普莱柯.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4049</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603566-普莱柯.xlsx
+++ b/数据整理/stocks/A股/上证主板/603566-普莱柯.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,4 +1373,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3864</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2808</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603566-普莱柯.xlsx
+++ b/数据整理/stocks/A股/上证主板/603566-普莱柯.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603566-普莱柯.xlsx
+++ b/数据整理/stocks/A股/上证主板/603566-普莱柯.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4297</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.64</v>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1718,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.67</v>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1669,13 +1756,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603566-普莱柯.xlsx
+++ b/数据整理/stocks/A股/上证主板/603566-普莱柯.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1913,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1924,17 +1925,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1944,14 +1965,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.3</v>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6027</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1960,14 +2003,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>49.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7</v>
       </c>
     </row>
     <row r="4">
@@ -1976,14 +2041,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.64</v>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1992,14 +2079,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.67</v>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2008,13 +2117,811 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>49.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603566-普莱柯.xlsx
+++ b/数据整理/stocks/A股/上证主板/603566-普莱柯.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2804,7 +2805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2815,17 +2816,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2835,14 +2856,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.41</v>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6776</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2851,14 +2894,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.3</v>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2874</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2867,14 +2932,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7</v>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2883,14 +2970,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.64</v>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2899,14 +3008,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.67</v>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2915,13 +3046,371 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>49.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603566-普莱柯.xlsx
+++ b/数据整理/stocks/A股/上证主板/603566-普莱柯.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>1.59</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>2.41</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>1.3</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -600,6 +617,858 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5900</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3853</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2975</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银农业产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>惠升惠益混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008491</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>惠升惠益混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008492</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1071,7 +1940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1961,7 +2830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2283,7 +3152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2491,7 +3360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2737,7 +3606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3173,7 +4042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603566-普莱柯.xlsx
+++ b/数据整理/stocks/A股/上证主板/603566-普莱柯.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>2.32</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>1.59</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>2.41</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>1.3</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -616,7 +633,1181 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3140</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0764</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银农业产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011989</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安鑫泽稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011991</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安泓利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011992</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安泓利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005212</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安稳裕债券</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011990</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安鑫泽稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009133</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安嘉利混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012480</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安信泰稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>惠升惠益混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>33.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012479</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安信泰稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>52.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>惠升惠益混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>33.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009134</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安嘉利混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>016264</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>52.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1468,7 +2659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1940,7 +3131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2830,7 +4021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3152,7 +4343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3360,7 +4551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3606,7 +4797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4040,250 +5231,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>164403</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3140</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000849</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信双核策略混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2802</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>673110</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>西部利得新润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1472</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>540009</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇丰晋信消费红利股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.96</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1321</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000850</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇丰晋信双核策略混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.52</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0243</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>